--- a/docs/source/index/tables/t0_mapper.xlsx
+++ b/docs/source/index/tables/t0_mapper.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t xml:space="preserve">aa.load_scales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t3a_aaontology_categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAontology scale categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t3b_aaontology_subcategories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAontology scale subcategories</t>
   </si>
 </sst>
 </file>
@@ -170,12 +182,12 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1018" style="0" width="11.52"/>
@@ -214,19 +226,29 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/docs/source/index/tables/t0_mapper.xlsx
+++ b/docs/source/index/tables/t0_mapper.xlsx
@@ -182,10 +182,10 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.83"/>
